--- a/backend/data/dcinside.xlsx
+++ b/backend/data/dcinside.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[나갤] 영철 유튜브 후배댓글</t>
+          <t>[야갤] 속보)) 공수처 윤석열 김건희도 통신조회 발각 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:45</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>466</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[야갤] 속보) SNL코리아 김건희 입갤 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>[싱갤] 싱글벙글 엄마 스마트폰 바꿔주세요</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>241</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">[싱갤] 싱글벙글 치킨 개수가 부족해서 KFC에 220억 소송건 할머니 </t>
+          <t>[야갤] 존나 시끄러운 와중 안철수 근황....jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1633</t>
         </is>
       </c>
     </row>

--- a/backend/data/dcinside.xlsx
+++ b/backend/data/dcinside.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[야갤] 속보)) 공수처 윤석열 김건희도 통신조회 발각 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>[아갤] [유키대회] 놀러오세요 야붕의 집</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>106</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[싱갤] 싱글벙글 엄마 스마트폰 바꿔주세요</t>
+          <t>[싱갤] 싱글벙글 부산대 에타 여혐 ㅠㅠ.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>284</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[야갤] 존나 시끄러운 와중 안철수 근황....jpg</t>
+          <t>[몸갤] [ㅇㅎ] 남자를 유혹하는 몸짓들..</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 16:15</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>142</t>
         </is>
       </c>
     </row>

--- a/backend/data/dcinside.xlsx
+++ b/backend/data/dcinside.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[아갤] [유키대회] 놀러오세요 야붕의 집</t>
+          <t>[기갤] [단독] 벌금형 확정 '버닝썬 경찰총장' 정직 3개월</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[싱갤] 싱글벙글 부산대 에타 여혐 ㅠㅠ.JPG</t>
+          <t>[싱갤] 싱글벙글 의외로 종교 자존심 전쟁 활발한곳</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>168</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[몸갤] [ㅇㅎ] 남자를 유혹하는 몸짓들..</t>
+          <t>[코갤] 24시간 영업 카페 압수수색 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:05</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>529</t>
         </is>
       </c>
     </row>

--- a/backend/data/dcinside.xlsx
+++ b/backend/data/dcinside.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[기갤] [단독] 벌금형 확정 '버닝썬 경찰총장' 정직 3개월</t>
+          <t>[야갤] 지수.. 개같이 부활 ..jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:55</t>
+          <t>2021.12.29 23:05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>522</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[싱갤] 싱글벙글 의외로 종교 자존심 전쟁 활발한곳</t>
+          <t>[싱갤] 징글징글 벚나무</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:45</t>
+          <t>2021.12.29 22:55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>114</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[코갤] 24시간 영업 카페 압수수색 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>[야갤] 현재 소름돋는다는 2012년 영화 '화차' 줄거리.....JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:35</t>
+          <t>2021.12.29 22:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>487</t>
         </is>
       </c>
     </row>

--- a/backend/data/dcinside.xlsx
+++ b/backend/data/dcinside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[야갤] 지수.. 개같이 부활 ..jpg</t>
+          <t>[야갤] 실시간 설강화 제작사 여초사이트 법적대응선언 여초반응</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 23:05</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>131</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[싱갤] 징글징글 벚나무</t>
+          <t>[싱갤] 싱글벙글 의외로 한국계인 사람</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 22:55</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[야갤] 현재 소름돋는다는 2012년 영화 '화차' 줄거리.....JPG</t>
+          <t>[트갤] 된장녀는 되고 허버허버는 안되고? 성별혐오 재점화</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[야갤] 속보) 윤카 일자리 정책 떴다ㄷㄷㄷ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>298</t>
         </is>
       </c>
     </row>

--- a/backend/data/dcinside.xlsx
+++ b/backend/data/dcinside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[야갤] 실시간 설강화 제작사 여초사이트 법적대응선언 여초반응</t>
+          <t>[야갤] 충격..맥도날드 포테토 때문에 줄서는 나라..jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:05</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>279</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[싱갤] 싱글벙글 의외로 한국계인 사람</t>
+          <t xml:space="preserve">[싱갤] 싱글벙글 세대별 피시방느낌 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[트갤] 된장녀는 되고 허버허버는 안되고? 성별혐오 재점화</t>
+          <t>[야갤] 코용석 페북 근황</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>126</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[야갤] 속보) 윤카 일자리 정책 떴다ㄷㄷㄷ</t>
+          <t>[코갤] 정부 "3월까지 대다수 국민 3차접종 완료시킬것"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[몸갤] [ㅇㅎ] 이거 짤림?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:41</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44</t>
         </is>
       </c>
     </row>
